--- a/uploads/expense_update.xlsx
+++ b/uploads/expense_update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NKarisa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4394A66C-E6C1-44C3-8C4C-A3F19FF430BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F55062-BB60-4D76-BB40-4BD771919A1E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" xr2:uid="{D31C0714-CF94-4600-8E67-2D6B58F73890}"/>
   </bookViews>
@@ -386,15 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10041BA7-0688-4ACF-909E-8103853311A6}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -410,13 +410,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>284646</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43461</v>
+      </c>
+      <c r="C2">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>284647</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43461</v>
+      </c>
+      <c r="C3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>284648</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43461</v>
+      </c>
+      <c r="C4">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>290290</v>
       </c>
-      <c r="B2" s="1">
-        <v>43475</v>
-      </c>
-      <c r="C2">
-        <v>25400</v>
+      <c r="B5" s="1">
+        <v>43461</v>
+      </c>
+      <c r="C5">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>290291</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43461</v>
+      </c>
+      <c r="C6">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>369630</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43461</v>
+      </c>
+      <c r="C7">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>456456</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43461</v>
+      </c>
+      <c r="C8">
+        <v>8500</v>
       </c>
     </row>
   </sheetData>
